--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_windows_resource" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="181">
   <si>
     <t>测试点说明</t>
   </si>
@@ -93,14 +93,6 @@
   </si>
   <si>
     <t>!@#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称不能大于32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称超过32位</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -788,6 +780,18 @@
   </si>
   <si>
     <t>名称长度大于64位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890123456789012345Admin123</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称不能大于64</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称超过64位</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1346,19 +1350,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1370,89 +1374,89 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="Q2" s="5">
         <v>389</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -1467,19 +1471,19 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>12</v>
@@ -1488,27 +1492,27 @@
         <v>12</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -1523,11 +1527,11 @@
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1544,63 +1548,63 @@
         <v>12</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25">
       <c r="A5" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1633,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
@@ -1653,132 +1657,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1840,19 +1844,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>6</v>
@@ -1864,39 +1868,39 @@
         <v>8</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>12</v>
@@ -1923,10 +1927,10 @@
         <v>12</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1939,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1970,37 +1974,37 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
@@ -2009,25 +2013,25 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -2036,12 +2040,12 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
@@ -2050,13 +2054,13 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -2065,27 +2069,27 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1.23456789012345E+32</v>
+        <v>179</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>12</v>
@@ -2094,27 +2098,27 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -2123,27 +2127,27 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
@@ -2152,24 +2156,24 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2181,27 +2185,27 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
@@ -2210,21 +2214,21 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>12</v>
@@ -2239,27 +2243,27 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
@@ -2268,27 +2272,27 @@
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>12</v>
@@ -2297,27 +2301,27 @@
         <v>12</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5">
         <v>2</v>
@@ -2326,36 +2330,36 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +2376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2395,22 +2399,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>3</v>
@@ -2418,36 +2422,36 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -2459,7 +2463,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>12</v>
@@ -2471,12 +2475,12 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>9</v>
@@ -2488,7 +2492,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -2500,12 +2504,12 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2517,10 +2521,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="5">
         <v>123</v>
@@ -2529,12 +2533,12 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
@@ -2543,13 +2547,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="5">
         <v>456</v>
@@ -2558,7 +2562,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2592,10 +2596,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2603,19 +2607,19 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -2656,16 +2660,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2702,19 +2706,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -2722,16 +2726,16 @@
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>12</v>
@@ -2743,50 +2747,50 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2795,102 +2799,102 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2899,24 +2903,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2925,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2956,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -2970,22 +2974,22 @@
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -2993,12 +2997,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="8"/>
@@ -3006,12 +3010,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="8" t="s">
@@ -3021,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -3062,16 +3066,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/testData/windows_resource_test_data.xlsx
+++ b/testData/windows_resource_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="add_windows_resource" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="187">
   <si>
     <t>测试点说明</t>
   </si>
@@ -496,10 +496,6 @@
   </si>
   <si>
     <t>commonwindow</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.23.56</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -792,6 +788,34 @@
   </si>
   <si>
     <t>资源名称超过64位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号同步协议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldap</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>域控管理员账号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> LDAP连接端口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.10.155</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1308,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1319,15 +1343,26 @@
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="10" width="32.375" customWidth="1"/>
-    <col min="11" max="11" width="31.5" customWidth="1"/>
-    <col min="12" max="17" width="32.375" customWidth="1"/>
-    <col min="18" max="18" width="42.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="12.125" customWidth="1"/>
+    <col min="16" max="16" width="17.375" customWidth="1"/>
+    <col min="17" max="17" width="17.625" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
+    <col min="19" max="19" width="18.625" customWidth="1"/>
+    <col min="20" max="20" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,13 +1412,19 @@
         <v>95</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14.25">
+    <row r="2" spans="1:20" ht="14.25">
       <c r="A2" s="9" t="s">
         <v>102</v>
       </c>
@@ -1421,7 +1462,7 @@
         <v>104</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>94</v>
@@ -1432,14 +1473,20 @@
       <c r="P2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R2" s="5">
         <v>389</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="14.25">
+      <c r="S2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="14.25">
       <c r="A3" s="4" t="s">
         <v>108</v>
       </c>
@@ -1489,13 +1536,19 @@
         <v>12</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="14.25">
+        <v>184</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="14.25">
       <c r="A4" s="9" t="s">
         <v>109</v>
       </c>
@@ -1545,13 +1598,19 @@
         <v>12</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="14.25">
+        <v>184</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.25">
       <c r="A5" s="4" t="s">
         <v>114</v>
       </c>
@@ -1568,7 +1627,7 @@
         <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>104</v>
@@ -1601,10 +1660,16 @@
         <v>104</v>
       </c>
       <c r="Q5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>165</v>
+      <c r="S5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1637,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>3</v>
@@ -1657,132 +1722,132 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
       <c r="G3" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>163</v>
-      </c>
       <c r="G9" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -1894,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
@@ -1930,7 +1995,7 @@
         <v>104</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2013,7 +2078,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2024,7 +2089,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -2040,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2069,18 +2134,18 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>38</v>
@@ -2098,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2109,7 +2174,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>40</v>
@@ -2127,7 +2192,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
@@ -2138,13 +2203,13 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>37</v>
@@ -2156,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
@@ -2167,13 +2232,13 @@
         <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7">
         <v>655555</v>
@@ -2185,7 +2250,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -2193,10 +2258,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>39</v>
@@ -2214,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -2243,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -2254,10 +2319,10 @@
         <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>41</v>
@@ -2272,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -2286,7 +2351,7 @@
         <v>119</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
@@ -2301,21 +2366,21 @@
         <v>12</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
@@ -2330,21 +2395,21 @@
         <v>12</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>12</v>
@@ -2356,10 +2421,10 @@
         <v>12</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2487,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>9</v>
@@ -2437,16 +2502,16 @@
         <v>46</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25">
@@ -2475,7 +2540,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -2504,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -2533,7 +2598,7 @@
         <v>123</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -2562,7 +2627,7 @@
         <v>456</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2684,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +2734,7 @@
         <v>110</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2747,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
@@ -2773,7 +2838,7 @@
         <v>70</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25">
@@ -2799,7 +2864,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -2825,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -2851,7 +2916,7 @@
         <v>75</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
@@ -2877,7 +2942,7 @@
         <v>78</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -2903,15 +2968,15 @@
         <v>1</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>12</v>
@@ -2920,7 +2985,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2929,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2980,11 +3045,11 @@
         <v>110</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
@@ -2997,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -3010,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -3025,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3058,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -3066,16 +3131,16 @@
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4">
